--- a/our_stuff/output/tables.xlsx
+++ b/our_stuff/output/tables.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="399" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="541" uniqueCount="61">
   <si>
     <t>Country</t>
   </si>
@@ -215,7 +215,1559 @@
     <numFmt numFmtId="171" formatCode="\(#.00\)"/>
     <numFmt numFmtId="172" formatCode="#,###.00"/>
   </numFmts>
-  <fonts count="1015">
+  <fonts count="1403">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -4285,7 +5837,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1015">
+  <borders count="1403">
     <border>
       <left/>
       <right/>
@@ -11391,11 +12943,2727 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1015">
+  <cellXfs count="1403">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -15450,6 +19718,1558 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="1014" fillId="0" borderId="1014" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1015" fillId="0" borderId="1015" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1016" fillId="0" borderId="1016" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1017" fillId="0" borderId="1017" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1018" fillId="0" borderId="1018" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1019" fillId="0" borderId="1019" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1020" fillId="0" borderId="1020" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1021" fillId="0" borderId="1021" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1022" fillId="0" borderId="1022" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1023" fillId="0" borderId="1023" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1024" fillId="0" borderId="1024" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1025" fillId="0" borderId="1025" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1026" fillId="0" borderId="1026" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1027" fillId="0" borderId="1027" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1028" fillId="0" borderId="1028" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1029" fillId="0" borderId="1029" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1030" fillId="0" borderId="1030" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1031" fillId="0" borderId="1031" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1032" fillId="0" borderId="1032" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1033" fillId="0" borderId="1033" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1034" fillId="0" borderId="1034" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1035" fillId="0" borderId="1035" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1036" fillId="0" borderId="1036" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1037" fillId="0" borderId="1037" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1038" fillId="0" borderId="1038" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1039" fillId="0" borderId="1039" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1040" fillId="0" borderId="1040" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1041" fillId="0" borderId="1041" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1042" fillId="0" borderId="1042" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1043" fillId="0" borderId="1043" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1044" fillId="0" borderId="1044" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1045" fillId="0" borderId="1045" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1046" fillId="0" borderId="1046" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1047" fillId="0" borderId="1047" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1048" fillId="0" borderId="1048" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1049" fillId="0" borderId="1049" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1050" fillId="0" borderId="1050" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1051" fillId="0" borderId="1051" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1052" fillId="0" borderId="1052" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1053" fillId="0" borderId="1053" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1054" fillId="0" borderId="1054" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1055" fillId="0" borderId="1055" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1056" fillId="0" borderId="1056" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1057" fillId="0" borderId="1057" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1058" fillId="0" borderId="1058" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1059" fillId="0" borderId="1059" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1060" fillId="0" borderId="1060" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1061" fillId="0" borderId="1061" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1062" fillId="0" borderId="1062" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1063" fillId="0" borderId="1063" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1064" fillId="0" borderId="1064" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1065" fillId="0" borderId="1065" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1066" fillId="0" borderId="1066" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1067" fillId="0" borderId="1067" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1068" fillId="0" borderId="1068" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1069" fillId="0" borderId="1069" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1070" fillId="0" borderId="1070" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1071" fillId="0" borderId="1071" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1072" fillId="0" borderId="1072" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1073" fillId="0" borderId="1073" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1074" fillId="0" borderId="1074" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1075" fillId="0" borderId="1075" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1076" fillId="0" borderId="1076" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1077" fillId="0" borderId="1077" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1078" fillId="0" borderId="1078" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1079" fillId="0" borderId="1079" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1080" fillId="0" borderId="1080" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1081" fillId="0" borderId="1081" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1082" fillId="0" borderId="1082" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1083" fillId="0" borderId="1083" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1084" fillId="0" borderId="1084" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1085" fillId="0" borderId="1085" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1086" fillId="0" borderId="1086" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1087" fillId="0" borderId="1087" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1088" fillId="0" borderId="1088" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1089" fillId="0" borderId="1089" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1090" fillId="0" borderId="1090" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1091" fillId="0" borderId="1091" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1092" fillId="0" borderId="1092" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1093" fillId="0" borderId="1093" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1094" fillId="0" borderId="1094" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1095" fillId="0" borderId="1095" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1096" fillId="0" borderId="1096" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1097" fillId="0" borderId="1097" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1098" fillId="0" borderId="1098" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1099" fillId="0" borderId="1099" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1100" fillId="0" borderId="1100" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1101" fillId="0" borderId="1101" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1102" fillId="0" borderId="1102" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1103" fillId="0" borderId="1103" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1104" fillId="0" borderId="1104" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1105" fillId="0" borderId="1105" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1106" fillId="0" borderId="1106" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1107" fillId="0" borderId="1107" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1108" fillId="0" borderId="1108" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1109" fillId="0" borderId="1109" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1110" fillId="0" borderId="1110" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1111" fillId="0" borderId="1111" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1112" fillId="0" borderId="1112" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1113" fillId="0" borderId="1113" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1114" fillId="0" borderId="1114" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1115" fillId="0" borderId="1115" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1116" fillId="0" borderId="1116" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1117" fillId="0" borderId="1117" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1118" fillId="0" borderId="1118" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1119" fillId="0" borderId="1119" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1120" fillId="0" borderId="1120" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1121" fillId="0" borderId="1121" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1122" fillId="0" borderId="1122" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1123" fillId="0" borderId="1123" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1124" fillId="0" borderId="1124" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1125" fillId="0" borderId="1125" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1126" fillId="0" borderId="1126" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1127" fillId="0" borderId="1127" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1128" fillId="0" borderId="1128" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1129" fillId="0" borderId="1129" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1130" fillId="0" borderId="1130" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1131" fillId="0" borderId="1131" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1132" fillId="0" borderId="1132" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1133" fillId="0" borderId="1133" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1134" fillId="0" borderId="1134" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1135" fillId="0" borderId="1135" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1136" fillId="0" borderId="1136" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1137" fillId="0" borderId="1137" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1138" fillId="0" borderId="1138" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1139" fillId="0" borderId="1139" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1140" fillId="0" borderId="1140" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1141" fillId="0" borderId="1141" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1142" fillId="0" borderId="1142" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1143" fillId="0" borderId="1143" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1144" fillId="0" borderId="1144" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1145" fillId="0" borderId="1145" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1146" fillId="0" borderId="1146" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1147" fillId="0" borderId="1147" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1148" fillId="0" borderId="1148" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1149" fillId="0" borderId="1149" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1150" fillId="0" borderId="1150" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1151" fillId="0" borderId="1151" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1152" fillId="0" borderId="1152" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1153" fillId="0" borderId="1153" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1154" fillId="0" borderId="1154" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1155" fillId="0" borderId="1155" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1156" fillId="0" borderId="1156" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1157" fillId="0" borderId="1157" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1158" fillId="0" borderId="1158" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1159" fillId="0" borderId="1159" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1160" fillId="0" borderId="1160" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1161" fillId="0" borderId="1161" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1162" fillId="0" borderId="1162" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1163" fillId="0" borderId="1163" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1164" fillId="0" borderId="1164" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1165" fillId="0" borderId="1165" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="1166" fillId="0" borderId="1166" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1167" fillId="0" borderId="1167" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1168" fillId="0" borderId="1168" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1169" fillId="0" borderId="1169" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1170" fillId="0" borderId="1170" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1171" fillId="0" borderId="1171" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1172" fillId="0" borderId="1172" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1173" fillId="0" borderId="1173" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1174" fillId="0" borderId="1174" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1175" fillId="0" borderId="1175" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1176" fillId="0" borderId="1176" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1177" fillId="0" borderId="1177" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1178" fillId="0" borderId="1178" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1179" fillId="0" borderId="1179" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1180" fillId="0" borderId="1180" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1181" fillId="0" borderId="1181" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1182" fillId="0" borderId="1182" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1183" fillId="0" borderId="1183" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1184" fillId="0" borderId="1184" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1185" fillId="0" borderId="1185" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1186" fillId="0" borderId="1186" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1187" fillId="0" borderId="1187" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1188" fillId="0" borderId="1188" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1189" fillId="0" borderId="1189" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1190" fillId="0" borderId="1190" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1191" fillId="0" borderId="1191" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1192" fillId="0" borderId="1192" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1193" fillId="0" borderId="1193" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1194" fillId="0" borderId="1194" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1195" fillId="0" borderId="1195" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1196" fillId="0" borderId="1196" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1197" fillId="0" borderId="1197" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1198" fillId="0" borderId="1198" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1199" fillId="0" borderId="1199" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1200" fillId="0" borderId="1200" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1201" fillId="0" borderId="1201" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1202" fillId="0" borderId="1202" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1203" fillId="0" borderId="1203" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1204" fillId="0" borderId="1204" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1205" fillId="0" borderId="1205" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1206" fillId="0" borderId="1206" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1207" fillId="0" borderId="1207" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1208" fillId="0" borderId="1208" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1209" fillId="0" borderId="1209" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1210" fillId="0" borderId="1210" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1211" fillId="0" borderId="1211" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1212" fillId="0" borderId="1212" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1213" fillId="0" borderId="1213" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1214" fillId="0" borderId="1214" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1215" fillId="0" borderId="1215" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1216" fillId="0" borderId="1216" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1217" fillId="0" borderId="1217" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1218" fillId="0" borderId="1218" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1219" fillId="0" borderId="1219" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1220" fillId="0" borderId="1220" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1221" fillId="0" borderId="1221" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1222" fillId="0" borderId="1222" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1223" fillId="0" borderId="1223" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1224" fillId="0" borderId="1224" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1225" fillId="0" borderId="1225" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1226" fillId="0" borderId="1226" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1227" fillId="0" borderId="1227" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1228" fillId="0" borderId="1228" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1229" fillId="0" borderId="1229" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1230" fillId="0" borderId="1230" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1231" fillId="0" borderId="1231" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1232" fillId="0" borderId="1232" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1233" fillId="0" borderId="1233" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1234" fillId="0" borderId="1234" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1235" fillId="0" borderId="1235" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1236" fillId="0" borderId="1236" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1237" fillId="0" borderId="1237" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1238" fillId="0" borderId="1238" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1239" fillId="0" borderId="1239" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1240" fillId="0" borderId="1240" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1241" fillId="0" borderId="1241" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1242" fillId="0" borderId="1242" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1243" fillId="0" borderId="1243" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1244" fillId="0" borderId="1244" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1245" fillId="0" borderId="1245" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1246" fillId="0" borderId="1246" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1247" fillId="0" borderId="1247" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1248" fillId="0" borderId="1248" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1249" fillId="0" borderId="1249" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1250" fillId="0" borderId="1250" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1251" fillId="0" borderId="1251" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1252" fillId="0" borderId="1252" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1253" fillId="0" borderId="1253" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1254" fillId="0" borderId="1254" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1255" fillId="0" borderId="1255" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1256" fillId="0" borderId="1256" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1257" fillId="0" borderId="1257" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1258" fillId="0" borderId="1258" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1259" fillId="0" borderId="1259" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1260" fillId="0" borderId="1260" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1261" fillId="0" borderId="1261" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1262" fillId="0" borderId="1262" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1263" fillId="0" borderId="1263" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1264" fillId="0" borderId="1264" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1265" fillId="0" borderId="1265" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1266" fillId="0" borderId="1266" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1267" fillId="0" borderId="1267" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1268" fillId="0" borderId="1268" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1269" fillId="0" borderId="1269" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1270" fillId="0" borderId="1270" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1271" fillId="0" borderId="1271" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1272" fillId="0" borderId="1272" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1273" fillId="0" borderId="1273" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1274" fillId="0" borderId="1274" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1275" fillId="0" borderId="1275" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1276" fillId="0" borderId="1276" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1277" fillId="0" borderId="1277" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1278" fillId="0" borderId="1278" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1279" fillId="0" borderId="1279" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1280" fillId="0" borderId="1280" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1281" fillId="0" borderId="1281" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1282" fillId="0" borderId="1282" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1283" fillId="0" borderId="1283" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1284" fillId="0" borderId="1284" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1285" fillId="0" borderId="1285" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1286" fillId="0" borderId="1286" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1287" fillId="0" borderId="1287" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1288" fillId="0" borderId="1288" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1289" fillId="0" borderId="1289" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1290" fillId="0" borderId="1290" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1291" fillId="0" borderId="1291" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1292" fillId="0" borderId="1292" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1293" fillId="0" borderId="1293" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1294" fillId="0" borderId="1294" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1295" fillId="0" borderId="1295" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1296" fillId="0" borderId="1296" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1297" fillId="0" borderId="1297" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1298" fillId="0" borderId="1298" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1299" fillId="0" borderId="1299" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1300" fillId="0" borderId="1300" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1301" fillId="0" borderId="1301" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1302" fillId="0" borderId="1302" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1303" fillId="0" borderId="1303" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1304" fillId="0" borderId="1304" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1305" fillId="0" borderId="1305" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1306" fillId="0" borderId="1306" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1307" fillId="0" borderId="1307" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1308" fillId="0" borderId="1308" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1309" fillId="0" borderId="1309" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1310" fillId="0" borderId="1310" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1311" fillId="0" borderId="1311" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1312" fillId="0" borderId="1312" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1313" fillId="0" borderId="1313" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1314" fillId="0" borderId="1314" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1315" fillId="0" borderId="1315" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1316" fillId="0" borderId="1316" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1317" fillId="0" borderId="1317" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1318" fillId="0" borderId="1318" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1319" fillId="0" borderId="1319" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1320" fillId="0" borderId="1320" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1321" fillId="0" borderId="1321" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1322" fillId="0" borderId="1322" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1323" fillId="0" borderId="1323" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1324" fillId="0" borderId="1324" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1325" fillId="0" borderId="1325" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1326" fillId="0" borderId="1326" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1327" fillId="0" borderId="1327" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1328" fillId="0" borderId="1328" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1329" fillId="0" borderId="1329" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1330" fillId="0" borderId="1330" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1331" fillId="0" borderId="1331" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1332" fillId="0" borderId="1332" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1333" fillId="0" borderId="1333" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1334" fillId="0" borderId="1334" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1335" fillId="0" borderId="1335" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1336" fillId="0" borderId="1336" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1337" fillId="0" borderId="1337" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1338" fillId="0" borderId="1338" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1339" fillId="0" borderId="1339" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1340" fillId="0" borderId="1340" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1341" fillId="0" borderId="1341" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1342" fillId="0" borderId="1342" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1343" fillId="0" borderId="1343" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1344" fillId="0" borderId="1344" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1345" fillId="0" borderId="1345" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1346" fillId="0" borderId="1346" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1347" fillId="0" borderId="1347" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1348" fillId="0" borderId="1348" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1349" fillId="0" borderId="1349" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1350" fillId="0" borderId="1350" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1351" fillId="0" borderId="1351" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1352" fillId="0" borderId="1352" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1353" fillId="0" borderId="1353" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1354" fillId="0" borderId="1354" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1355" fillId="0" borderId="1355" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1356" fillId="0" borderId="1356" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1357" fillId="0" borderId="1357" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1358" fillId="0" borderId="1358" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1359" fillId="0" borderId="1359" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1360" fillId="0" borderId="1360" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1361" fillId="0" borderId="1361" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1362" fillId="0" borderId="1362" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1363" fillId="0" borderId="1363" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1364" fillId="0" borderId="1364" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1365" fillId="0" borderId="1365" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1366" fillId="0" borderId="1366" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1367" fillId="0" borderId="1367" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1368" fillId="0" borderId="1368" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1369" fillId="0" borderId="1369" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1370" fillId="0" borderId="1370" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1371" fillId="0" borderId="1371" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1372" fillId="0" borderId="1372" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1373" fillId="0" borderId="1373" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1374" fillId="0" borderId="1374" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1375" fillId="0" borderId="1375" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1376" fillId="0" borderId="1376" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1377" fillId="0" borderId="1377" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1378" fillId="0" borderId="1378" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1379" fillId="0" borderId="1379" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1380" fillId="0" borderId="1380" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1381" fillId="0" borderId="1381" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1382" fillId="0" borderId="1382" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1383" fillId="0" borderId="1383" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1384" fillId="0" borderId="1384" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1385" fillId="0" borderId="1385" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1386" fillId="0" borderId="1386" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1387" fillId="0" borderId="1387" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1388" fillId="0" borderId="1388" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="1389" fillId="0" borderId="1389" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1390" fillId="0" borderId="1390" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1391" fillId="0" borderId="1391" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1392" fillId="0" borderId="1392" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1393" fillId="0" borderId="1393" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1394" fillId="0" borderId="1394" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1395" fillId="0" borderId="1395" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1396" fillId="0" borderId="1396" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1397" fillId="0" borderId="1397" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1398" fillId="0" borderId="1398" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1399" fillId="0" borderId="1399" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1400" fillId="0" borderId="1400" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1401" fillId="0" borderId="1401" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="1402" fillId="0" borderId="1402" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15488,30 +21308,30 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="238" t="s">
+      <c r="A3" s="1091" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="239">
+      <c r="B3" s="1092">
         <v>198377</v>
       </c>
-      <c r="C3" s="240">
+      <c r="C3" s="1093">
         <v>33386</v>
       </c>
-      <c r="D3" s="244">
+      <c r="D3" s="1097">
         <v>0.1682957197659003</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="241" t="s">
+      <c r="A4" s="1094" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="242">
+      <c r="B4" s="1095">
         <v>6180662</v>
       </c>
-      <c r="C4" s="243">
+      <c r="C4" s="1096">
         <v>1940883</v>
       </c>
-      <c r="D4" s="245">
+      <c r="D4" s="1098">
         <v>0.31402509957671199</v>
       </c>
     </row>
@@ -15521,240 +21341,240 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="246" t="s">
+      <c r="A6" s="1099" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="247">
+      <c r="B6" s="1100">
         <v>50799</v>
       </c>
-      <c r="C6" s="248">
+      <c r="C6" s="1101">
         <v>2791</v>
       </c>
-      <c r="D6" s="297">
+      <c r="D6" s="1150">
         <v>0.054942026417842897</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="1102" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="250">
+      <c r="B7" s="1103">
         <v>3568</v>
       </c>
-      <c r="C7" s="251">
+      <c r="C7" s="1104">
         <v>582</v>
       </c>
-      <c r="D7" s="298">
+      <c r="D7" s="1151">
         <v>0.16311659192825109</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="252" t="s">
+      <c r="A8" s="1105" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="253">
+      <c r="B8" s="1106">
         <v>20564</v>
       </c>
-      <c r="C8" s="254">
+      <c r="C8" s="1107">
         <v>5024</v>
       </c>
-      <c r="D8" s="299">
+      <c r="D8" s="1152">
         <v>0.24431044543863059</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="255" t="s">
+      <c r="A9" s="1108" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="256">
+      <c r="B9" s="1109">
         <v>90751</v>
       </c>
-      <c r="C9" s="257">
+      <c r="C9" s="1110">
         <v>21330</v>
       </c>
-      <c r="D9" s="300">
+      <c r="D9" s="1153">
         <v>0.2350387323555663</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="258" t="s">
+      <c r="A10" s="1111" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="259">
+      <c r="B10" s="1112">
         <v>12196</v>
       </c>
-      <c r="C10" s="260">
+      <c r="C10" s="1113">
         <v>1325</v>
       </c>
-      <c r="D10" s="301">
+      <c r="D10" s="1154">
         <v>0.10864217776320111</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="261" t="s">
+      <c r="A11" s="1114" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="262">
+      <c r="B11" s="1115">
         <v>9915</v>
       </c>
-      <c r="C11" s="263">
+      <c r="C11" s="1116">
         <v>960</v>
       </c>
-      <c r="D11" s="302">
+      <c r="D11" s="1155">
         <v>0.096822995461422104</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="264" t="s">
+      <c r="A12" s="1117" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="265">
+      <c r="B12" s="1118">
         <v>282014</v>
       </c>
-      <c r="C12" s="266">
+      <c r="C12" s="1119">
         <v>56978</v>
       </c>
-      <c r="D12" s="303">
+      <c r="D12" s="1156">
         <v>0.2020396150545718</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="267" t="s">
+      <c r="A13" s="1120" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="268">
+      <c r="B13" s="1121">
         <v>242177</v>
       </c>
-      <c r="C13" s="269">
+      <c r="C13" s="1122">
         <v>24718</v>
       </c>
-      <c r="D13" s="304">
+      <c r="D13" s="1157">
         <v>0.1020658444030606</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="270" t="s">
+      <c r="A14" s="1123" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="271">
+      <c r="B14" s="1124">
         <v>69831</v>
       </c>
-      <c r="C14" s="272">
+      <c r="C14" s="1125">
         <v>4847</v>
       </c>
-      <c r="D14" s="305">
+      <c r="D14" s="1158">
         <v>0.069410433761509904</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="273" t="s">
+      <c r="A15" s="1126" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="274">
+      <c r="B15" s="1127">
         <v>41785</v>
       </c>
-      <c r="C15" s="275">
+      <c r="C15" s="1128">
         <v>10011</v>
       </c>
-      <c r="D15" s="306">
+      <c r="D15" s="1159">
         <v>0.23958358262534399</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="276" t="s">
+      <c r="A16" s="1129" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="277">
+      <c r="B16" s="1130">
         <v>5673</v>
       </c>
-      <c r="C16" s="278">
+      <c r="C16" s="1131">
         <v>497</v>
       </c>
-      <c r="D16" s="307">
+      <c r="D16" s="1160">
         <v>0.087607967565661901</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="279" t="s">
+      <c r="A17" s="1132" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="280">
+      <c r="B17" s="1133">
         <v>82831</v>
       </c>
-      <c r="C17" s="281">
+      <c r="C17" s="1134">
         <v>10098</v>
       </c>
-      <c r="D17" s="308">
+      <c r="D17" s="1161">
         <v>0.1219108787772694</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="282" t="s">
+      <c r="A18" s="1135" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="283">
+      <c r="B18" s="1136">
         <v>26618</v>
       </c>
-      <c r="C18" s="284">
+      <c r="C18" s="1137">
         <v>5753</v>
       </c>
-      <c r="D18" s="309">
+      <c r="D18" s="1162">
         <v>0.21613194079194531</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="285" t="s">
+      <c r="A19" s="1138" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="286">
+      <c r="B19" s="1139">
         <v>101529</v>
       </c>
-      <c r="C19" s="287">
+      <c r="C19" s="1140">
         <v>21528</v>
       </c>
-      <c r="D19" s="310">
+      <c r="D19" s="1163">
         <v>0.21203793989894509</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="288" t="s">
+      <c r="A20" s="1141" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="289">
+      <c r="B20" s="1142">
         <v>12031</v>
       </c>
-      <c r="C20" s="290">
+      <c r="C20" s="1143">
         <v>2584</v>
       </c>
-      <c r="D20" s="311">
+      <c r="D20" s="1164">
         <v>0.21477848890366549</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="291" t="s">
+      <c r="A21" s="1144" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="292">
+      <c r="B21" s="1145">
         <v>8882</v>
       </c>
-      <c r="C21" s="293">
+      <c r="C21" s="1146">
         <v>1738</v>
       </c>
-      <c r="D21" s="312">
+      <c r="D21" s="1165">
         <v>0.19567664940328761</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="294" t="s">
+      <c r="A22" s="1147" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="295">
+      <c r="B22" s="1148">
         <v>6157170</v>
       </c>
-      <c r="C22" s="296">
+      <c r="C22" s="1149">
         <v>1859975</v>
       </c>
-      <c r="D22" s="313">
+      <c r="D22" s="1166">
         <v>0.3020827750411309</v>
       </c>
     </row>
@@ -15776,209 +21596,209 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="779" t="s">
+      <c r="B2" s="1167" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="791" t="s">
+      <c r="C2" s="1179" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="797" t="s">
+      <c r="F2" s="1185" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="780">
+      <c r="B3" s="1168">
         <v>17403819</v>
       </c>
-      <c r="F3" s="798">
+      <c r="F3" s="1186">
         <v>23326626</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="781" t="s">
+      <c r="A4" s="1169" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="782">
+      <c r="B4" s="1170">
         <v>1237.227311996646</v>
       </c>
-      <c r="C4" s="792">
+      <c r="C4" s="1180">
         <v>40.287094266580532</v>
       </c>
-      <c r="E4" s="799" t="s">
+      <c r="E4" s="1187" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="800">
+      <c r="F4" s="1188">
         <v>939.09265962293671</v>
       </c>
-      <c r="G4" s="825">
+      <c r="G4" s="1213">
         <v>50.223482345150885</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="783" t="s">
+      <c r="A5" s="1171" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="784">
+      <c r="B5" s="1172">
         <v>1941.8894695605677</v>
       </c>
-      <c r="C5" s="793">
+      <c r="C5" s="1181">
         <v>45.200549746497735</v>
       </c>
-      <c r="E5" s="801" t="s">
+      <c r="E5" s="1189" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="802">
+      <c r="F5" s="1190">
         <v>1653.9475836497861</v>
       </c>
-      <c r="G5" s="826">
+      <c r="G5" s="1214">
         <v>51.624907847732594</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="785" t="s">
+      <c r="A6" s="1173" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="786">
+      <c r="B6" s="1174">
         <v>1563.8614813489814</v>
       </c>
-      <c r="C6" s="794">
+      <c r="C6" s="1182">
         <v>39.905823539140094</v>
       </c>
-      <c r="E6" s="803" t="s">
+      <c r="E6" s="1191" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="804">
+      <c r="F6" s="1192">
         <v>1358.1840555628667</v>
       </c>
-      <c r="G6" s="827">
+      <c r="G6" s="1215">
         <v>42.278765432675783</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="787" t="s">
+      <c r="A7" s="1175" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="788">
+      <c r="B7" s="1176">
         <v>1025.1090637328653</v>
       </c>
-      <c r="C7" s="795">
+      <c r="C7" s="1183">
         <v>35.839398918280729</v>
       </c>
-      <c r="E7" s="805" t="s">
+      <c r="E7" s="1193" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="806">
+      <c r="F7" s="1194">
         <v>823.31402712087379</v>
       </c>
-      <c r="G7" s="828">
+      <c r="G7" s="1216">
         <v>38.079056845954817</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="789" t="s">
+      <c r="A8" s="1177" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="790">
+      <c r="B8" s="1178">
         <v>948.44388642158026</v>
       </c>
-      <c r="C8" s="796">
+      <c r="C8" s="1184">
         <v>25.139836695424197</v>
       </c>
-      <c r="E8" s="807" t="s">
+      <c r="E8" s="1195" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="808">
+      <c r="F8" s="1196">
         <v>812.61117523007636</v>
       </c>
-      <c r="G8" s="829">
+      <c r="G8" s="1217">
         <v>26.078259800828171</v>
       </c>
     </row>
     <row r="9">
-      <c r="E9" s="809" t="s">
+      <c r="E9" s="1197" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="810">
+      <c r="F9" s="1198">
         <v>939.03925524445015</v>
       </c>
-      <c r="G9" s="830">
+      <c r="G9" s="1218">
         <v>144.94329838480454</v>
       </c>
     </row>
     <row r="10">
-      <c r="E10" s="811" t="s">
+      <c r="E10" s="1199" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="812">
+      <c r="F10" s="1200">
         <v>1902.2002799012487</v>
       </c>
-      <c r="G10" s="831">
+      <c r="G10" s="1219">
         <v>130.57230218194172</v>
       </c>
     </row>
     <row r="11">
-      <c r="E11" s="813" t="s">
+      <c r="E11" s="1201" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="814">
+      <c r="F11" s="1202">
         <v>1760.2323707793475</v>
       </c>
-      <c r="G11" s="832">
+      <c r="G11" s="1220">
         <v>101.68988022746129</v>
       </c>
     </row>
     <row r="12">
-      <c r="E12" s="815" t="s">
+      <c r="E12" s="1203" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="816">
+      <c r="F12" s="1204">
         <v>1351.2064528828078</v>
       </c>
-      <c r="G12" s="833">
+      <c r="G12" s="1221">
         <v>88.781458899711197</v>
       </c>
     </row>
     <row r="13">
-      <c r="E13" s="817" t="s">
+      <c r="E13" s="1205" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="818">
+      <c r="F13" s="1206">
         <v>1692.0958011972766</v>
       </c>
-      <c r="G13" s="834">
+      <c r="G13" s="1222">
         <v>55.609522197733774</v>
       </c>
     </row>
     <row r="14">
-      <c r="E14" s="819" t="s">
+      <c r="E14" s="1207" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="820">
+      <c r="F14" s="1208">
         <v>-367.22004333277454</v>
       </c>
-      <c r="G14" s="835">
+      <c r="G14" s="1223">
         <v>5.5030357149488918</v>
       </c>
     </row>
     <row r="15">
-      <c r="E15" s="821" t="s">
+      <c r="E15" s="1209" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="822">
+      <c r="F15" s="1210">
         <v>459.99424126844281</v>
       </c>
-      <c r="G15" s="836">
+      <c r="G15" s="1224">
         <v>35.777831777259934</v>
       </c>
     </row>
     <row r="16">
-      <c r="E16" s="823" t="s">
+      <c r="E16" s="1211" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="824">
+      <c r="F16" s="1212">
         <v>1098.7947877019774</v>
       </c>
-      <c r="G16" s="837">
+      <c r="G16" s="1225">
         <v>87.422644295862554</v>
       </c>
     </row>
@@ -15988,216 +21808,221 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="2">
-      <c r="B2" s="838" t="s">
+      <c r="B2" s="1226" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="850" t="s">
+      <c r="C2" s="1238" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="856" t="s">
+      <c r="F2" s="1244" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="839">
+      <c r="B3" s="1227">
         <v>19571567</v>
       </c>
-      <c r="F3" s="857">
+      <c r="F3" s="1245">
         <v>25663784</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="840" t="s">
+      <c r="A4" s="1228" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="841">
+      <c r="B4" s="1229">
         <v>-254.99490723864244</v>
       </c>
-      <c r="C4" s="851">
+      <c r="C4" s="1239">
         <v>18.298071916070274</v>
       </c>
-      <c r="E4" s="858" t="s">
+      <c r="E4" s="1246" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="859">
+      <c r="F4" s="1247">
         <v>65.110743819673772</v>
       </c>
-      <c r="G4" s="884">
+      <c r="G4" s="1272">
         <v>19.164277661376534</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="842" t="s">
+      <c r="A5" s="1230" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="843">
+      <c r="B5" s="1231">
         <v>-927.29801860710813</v>
       </c>
-      <c r="C5" s="852">
+      <c r="C5" s="1240">
         <v>16.555470873535022</v>
       </c>
-      <c r="E5" s="860" t="s">
+      <c r="E5" s="1248" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="861">
+      <c r="F5" s="1249">
         <v>-651.77688800566796</v>
       </c>
-      <c r="G5" s="885">
+      <c r="G5" s="1273">
         <v>17.481960094153557</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="844" t="s">
+      <c r="A6" s="1232" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="845">
+      <c r="B6" s="1233">
         <v>-1056.5092821172611</v>
       </c>
-      <c r="C6" s="853">
+      <c r="C6" s="1241">
         <v>15.904775410824364</v>
       </c>
-      <c r="E6" s="862" t="s">
+      <c r="E6" s="1250" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="863">
+      <c r="F6" s="1251">
         <v>-907.5651967141124</v>
       </c>
-      <c r="G6" s="886">
+      <c r="G6" s="1274">
         <v>15.960297352729375</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="846" t="s">
+      <c r="A7" s="1234" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="847">
+      <c r="B7" s="1235">
         <v>-856.78932208114213</v>
       </c>
-      <c r="C7" s="854">
+      <c r="C7" s="1242">
         <v>15.293544560261777</v>
       </c>
-      <c r="E7" s="864" t="s">
+      <c r="E7" s="1252" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="865">
+      <c r="F7" s="1253">
         <v>-717.77223803085917</v>
       </c>
-      <c r="G7" s="887">
+      <c r="G7" s="1275">
         <v>15.559077720774205</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="848" t="s">
+      <c r="A8" s="1236" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="849">
+      <c r="B8" s="1237">
         <v>-1086.5082018332475</v>
       </c>
-      <c r="C8" s="855">
+      <c r="C8" s="1243">
         <v>14.312761234914889</v>
       </c>
-      <c r="E8" s="866" t="s">
+      <c r="E8" s="1254" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="867">
+      <c r="F8" s="1255">
         <v>-1035.9343487925792</v>
       </c>
-      <c r="G8" s="888">
+      <c r="G8" s="1276">
         <v>13.728585014422167</v>
       </c>
     </row>
     <row r="9">
-      <c r="E9" s="868" t="s">
+      <c r="E9" s="1256" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="869">
+      <c r="F9" s="1257">
         <v>-2856.0826918638386</v>
       </c>
-      <c r="G9" s="889">
+      <c r="G9" s="1277">
         <v>28.473062667627374</v>
       </c>
     </row>
     <row r="10">
-      <c r="E10" s="870" t="s">
+      <c r="E10" s="1258" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="871">
+      <c r="F10" s="1259">
         <v>-2899.8551373799842</v>
       </c>
-      <c r="G10" s="890">
+      <c r="G10" s="1278">
         <v>23.28057004243167</v>
       </c>
     </row>
     <row r="11">
-      <c r="E11" s="872" t="s">
+      <c r="E11" s="1260" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="873">
+      <c r="F11" s="1261">
         <v>-2635.4038594144113</v>
       </c>
-      <c r="G11" s="891">
+      <c r="G11" s="1279">
         <v>20.678210482446538</v>
       </c>
     </row>
     <row r="12">
-      <c r="E12" s="874" t="s">
+      <c r="E12" s="1262" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="875">
+      <c r="F12" s="1263">
         <v>-2314.4966213176058</v>
       </c>
-      <c r="G12" s="892">
+      <c r="G12" s="1280">
         <v>20.588298215227336</v>
       </c>
     </row>
     <row r="13">
-      <c r="E13" s="876" t="s">
+      <c r="E13" s="1264" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="877">
+      <c r="F13" s="1265">
         <v>-2175.8329056640996</v>
       </c>
-      <c r="G13" s="893">
+      <c r="G13" s="1281">
         <v>16.101050161955719</v>
       </c>
     </row>
     <row r="14">
-      <c r="E14" s="878" t="s">
+      <c r="E14" s="1266" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="879">
+      <c r="F14" s="1267">
         <v>-1391.4731619133454</v>
       </c>
-      <c r="G14" s="894">
+      <c r="G14" s="1282">
         <v>3.2063357146784375</v>
       </c>
     </row>
     <row r="15">
-      <c r="E15" s="880" t="s">
+      <c r="E15" s="1268" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="881">
+      <c r="F15" s="1269">
         <v>-211.95812172008959</v>
       </c>
-      <c r="G15" s="895">
+      <c r="G15" s="1283">
         <v>8.340999915378859</v>
       </c>
     </row>
     <row r="16">
-      <c r="E16" s="882" t="s">
+      <c r="E16" s="1270" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="883">
+      <c r="F16" s="1271">
         <v>54.348369277407706</v>
       </c>
-      <c r="G16" s="896">
+      <c r="G16" s="1284">
         <v>15.336041854251411</v>
       </c>
     </row>
@@ -16207,216 +22032,221 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="2">
-      <c r="B2" s="897" t="s">
+      <c r="B2" s="1285" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="909" t="s">
+      <c r="C2" s="1297" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="915" t="s">
+      <c r="F2" s="1303" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="898">
+      <c r="B3" s="1286">
         <v>17403819</v>
       </c>
-      <c r="F3" s="916">
+      <c r="F3" s="1304">
         <v>23326626</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="899" t="s">
+      <c r="A4" s="1287" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="900">
+      <c r="B4" s="1288">
         <v>837.51106032415316</v>
       </c>
-      <c r="C4" s="910">
+      <c r="C4" s="1298">
         <v>40.6471416022287</v>
       </c>
-      <c r="E4" s="917" t="s">
+      <c r="E4" s="1305" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="918">
+      <c r="F4" s="1306">
         <v>636.93533238163684</v>
       </c>
-      <c r="G4" s="943">
+      <c r="G4" s="1331">
         <v>50.400572897347644</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="901" t="s">
+      <c r="A5" s="1289" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="902">
+      <c r="B5" s="1290">
         <v>1458.4833093944583</v>
       </c>
-      <c r="C5" s="911">
+      <c r="C5" s="1299">
         <v>45.705767622848214</v>
       </c>
-      <c r="E5" s="919" t="s">
+      <c r="E5" s="1307" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="920">
+      <c r="F5" s="1308">
         <v>1243.6524143553786</v>
       </c>
-      <c r="G5" s="944">
+      <c r="G5" s="1332">
         <v>51.988550780861509</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="903" t="s">
+      <c r="A6" s="1291" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="904">
+      <c r="B6" s="1292">
         <v>1117.7166974276418</v>
       </c>
-      <c r="C6" s="912">
+      <c r="C6" s="1300">
         <v>40.290215371817304</v>
       </c>
-      <c r="E6" s="921" t="s">
+      <c r="E6" s="1309" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="922">
+      <c r="F6" s="1310">
         <v>915.69061828042027</v>
       </c>
-      <c r="G6" s="945">
+      <c r="G6" s="1333">
         <v>42.524664140013236</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="905" t="s">
+      <c r="A7" s="1293" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="906">
+      <c r="B7" s="1294">
         <v>761.69534255285987</v>
       </c>
-      <c r="C7" s="913">
+      <c r="C7" s="1301">
         <v>36.0497715756037</v>
       </c>
-      <c r="E7" s="923" t="s">
+      <c r="E7" s="1311" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="924">
+      <c r="F7" s="1312">
         <v>581.54434069789761</v>
       </c>
-      <c r="G7" s="946">
+      <c r="G7" s="1334">
         <v>38.192720142954571</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="907" t="s">
+      <c r="A8" s="1295" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="908">
+      <c r="B8" s="1296">
         <v>679.09338779596726</v>
       </c>
-      <c r="C8" s="914">
+      <c r="C8" s="1302">
         <v>25.488983271455087</v>
       </c>
-      <c r="E8" s="925" t="s">
+      <c r="E8" s="1313" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="926">
+      <c r="F8" s="1314">
         <v>517.33507768222546</v>
       </c>
-      <c r="G8" s="947">
+      <c r="G8" s="1335">
         <v>26.302715355849756</v>
       </c>
     </row>
     <row r="9">
-      <c r="E9" s="927" t="s">
+      <c r="E9" s="1315" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="928">
+      <c r="F9" s="1316">
         <v>766.36267083022506</v>
       </c>
-      <c r="G9" s="948">
+      <c r="G9" s="1336">
         <v>145.13426831305407</v>
       </c>
     </row>
     <row r="10">
-      <c r="E10" s="929" t="s">
+      <c r="E10" s="1317" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="930">
+      <c r="F10" s="1318">
         <v>1545.0415090069278</v>
       </c>
-      <c r="G10" s="949">
+      <c r="G10" s="1337">
         <v>131.21269213940519</v>
       </c>
     </row>
     <row r="11">
-      <c r="E11" s="931" t="s">
+      <c r="E11" s="1319" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="932">
+      <c r="F11" s="1320">
         <v>1326.0610224172228</v>
       </c>
-      <c r="G11" s="950">
+      <c r="G11" s="1338">
         <v>101.69594003893189</v>
       </c>
     </row>
     <row r="12">
-      <c r="E12" s="933" t="s">
+      <c r="E12" s="1321" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="934">
+      <c r="F12" s="1322">
         <v>1144.5053657160302</v>
       </c>
-      <c r="G12" s="951">
+      <c r="G12" s="1339">
         <v>88.463326312719062</v>
       </c>
     </row>
     <row r="13">
-      <c r="E13" s="935" t="s">
+      <c r="E13" s="1323" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="936">
+      <c r="F13" s="1324">
         <v>1423.6574949285011</v>
       </c>
-      <c r="G13" s="952">
+      <c r="G13" s="1340">
         <v>55.409384795605952</v>
       </c>
     </row>
     <row r="14">
-      <c r="E14" s="937" t="s">
+      <c r="E14" s="1325" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="938">
+      <c r="F14" s="1326">
         <v>-249.8525079185703</v>
       </c>
-      <c r="G14" s="953">
+      <c r="G14" s="1341">
         <v>5.4754203330548537</v>
       </c>
     </row>
     <row r="15">
-      <c r="E15" s="939" t="s">
+      <c r="E15" s="1327" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="940">
+      <c r="F15" s="1328">
         <v>198.54201762062277</v>
       </c>
-      <c r="G15" s="954">
+      <c r="G15" s="1342">
         <v>35.797328161385821</v>
       </c>
     </row>
     <row r="16">
-      <c r="E16" s="941" t="s">
+      <c r="E16" s="1329" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="942">
+      <c r="F16" s="1330">
         <v>809.24267046501143</v>
       </c>
-      <c r="G16" s="955">
+      <c r="G16" s="1343">
         <v>87.449498927013821</v>
       </c>
     </row>
@@ -16426,216 +22256,221 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="2">
-      <c r="B2" s="956" t="s">
+      <c r="B2" s="1344" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="968" t="s">
+      <c r="C2" s="1356" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="974" t="s">
+      <c r="F2" s="1362" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="957">
+      <c r="B3" s="1345">
         <v>19571567</v>
       </c>
-      <c r="F3" s="975">
+      <c r="F3" s="1363">
         <v>25663784</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="958" t="s">
+      <c r="A4" s="1346" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="959">
+      <c r="B4" s="1347">
         <v>-926.51479188652456</v>
       </c>
-      <c r="C4" s="969">
+      <c r="C4" s="1357">
         <v>18.363774153037188</v>
       </c>
-      <c r="E4" s="976" t="s">
+      <c r="E4" s="1364" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="977">
+      <c r="F4" s="1365">
         <v>-428.87078355413507</v>
       </c>
-      <c r="G4" s="1002">
+      <c r="G4" s="1390">
         <v>19.184971154866759</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="960" t="s">
+      <c r="A5" s="1348" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="961">
+      <c r="B5" s="1349">
         <v>-1591.6299791923318</v>
       </c>
-      <c r="C5" s="970">
+      <c r="C5" s="1358">
         <v>16.660446508132282</v>
       </c>
-      <c r="E5" s="978" t="s">
+      <c r="E5" s="1366" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="979">
+      <c r="F5" s="1367">
         <v>-1140.4440374406261</v>
       </c>
-      <c r="G5" s="1003">
+      <c r="G5" s="1391">
         <v>17.537741088135924</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="962" t="s">
+      <c r="A6" s="1350" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="963">
+      <c r="B6" s="1351">
         <v>-1689.8059234244017</v>
       </c>
-      <c r="C6" s="971">
+      <c r="C6" s="1359">
         <v>16.036038433814316</v>
       </c>
-      <c r="E6" s="980" t="s">
+      <c r="E6" s="1368" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="981">
+      <c r="F6" s="1369">
         <v>-1401.3119500575683</v>
       </c>
-      <c r="G6" s="1004">
+      <c r="G6" s="1392">
         <v>16.04105874867604</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="964" t="s">
+      <c r="A7" s="1352" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="965">
+      <c r="B7" s="1353">
         <v>-1413.5631118106671</v>
       </c>
-      <c r="C7" s="972">
+      <c r="C7" s="1360">
         <v>15.419413819856112</v>
       </c>
-      <c r="E7" s="982" t="s">
+      <c r="E7" s="1370" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="983">
+      <c r="F7" s="1371">
         <v>-1136.0268134365001</v>
       </c>
-      <c r="G7" s="1005">
+      <c r="G7" s="1393">
         <v>15.635108775602902</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="966" t="s">
+      <c r="A8" s="1354" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="967">
+      <c r="B8" s="1355">
         <v>-1611.8341381741755</v>
       </c>
-      <c r="C8" s="973">
+      <c r="C8" s="1361">
         <v>14.45204238621972</v>
       </c>
-      <c r="E8" s="984" t="s">
+      <c r="E8" s="1372" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="985">
+      <c r="F8" s="1373">
         <v>-1457.6400324905571</v>
       </c>
-      <c r="G8" s="1006">
+      <c r="G8" s="1394">
         <v>13.838548317150815</v>
       </c>
     </row>
     <row r="9">
-      <c r="E9" s="986" t="s">
+      <c r="E9" s="1374" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="987">
+      <c r="F9" s="1375">
         <v>-3162.9890408423876</v>
       </c>
-      <c r="G9" s="1007">
+      <c r="G9" s="1395">
         <v>28.673483376010005</v>
       </c>
     </row>
     <row r="10">
-      <c r="E10" s="988" t="s">
+      <c r="E10" s="1376" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="989">
+      <c r="F10" s="1377">
         <v>-3310.8541581737295</v>
       </c>
-      <c r="G10" s="1008">
+      <c r="G10" s="1396">
         <v>23.493111856464576</v>
       </c>
     </row>
     <row r="11">
-      <c r="E11" s="990" t="s">
+      <c r="E11" s="1378" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="991">
+      <c r="F11" s="1379">
         <v>-3071.7127453678995</v>
       </c>
-      <c r="G11" s="1009">
+      <c r="G11" s="1397">
         <v>20.829303581242488</v>
       </c>
     </row>
     <row r="12">
-      <c r="E12" s="992" t="s">
+      <c r="E12" s="1380" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="993">
+      <c r="F12" s="1381">
         <v>-2684.2562049272019</v>
       </c>
-      <c r="G12" s="1010">
+      <c r="G12" s="1398">
         <v>20.683536664573904</v>
       </c>
     </row>
     <row r="13">
-      <c r="E13" s="994" t="s">
+      <c r="E13" s="1382" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="995">
+      <c r="F13" s="1383">
         <v>-2553.3728372826708</v>
       </c>
-      <c r="G13" s="1011">
+      <c r="G13" s="1399">
         <v>16.237268279574884</v>
       </c>
     </row>
     <row r="14">
-      <c r="E14" s="996" t="s">
+      <c r="E14" s="1384" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="997">
+      <c r="F14" s="1385">
         <v>-1294.3757603098411</v>
       </c>
-      <c r="G14" s="1012">
+      <c r="G14" s="1400">
         <v>3.2033928851533924</v>
       </c>
     </row>
     <row r="15">
-      <c r="E15" s="998" t="s">
+      <c r="E15" s="1386" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="999">
+      <c r="F15" s="1387">
         <v>-330.95865420978498</v>
       </c>
-      <c r="G15" s="1013">
+      <c r="G15" s="1401">
         <v>8.3372549344133127</v>
       </c>
     </row>
     <row r="16">
-      <c r="E16" s="1000" t="s">
+      <c r="E16" s="1388" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="1001">
+      <c r="F16" s="1389">
         <v>-31.056478742051311</v>
       </c>
-      <c r="G16" s="1014">
+      <c r="G16" s="1402">
         <v>15.456422276282092</v>
       </c>
     </row>
